--- a/output/PersonalHealthRecords/relatedperson-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/relatedperson-ihi-1.xlsx
@@ -1490,7 +1490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM144"/>
+  <dimension ref="A1:AL144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/PersonalHealthRecords/relatedperson-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/relatedperson-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="414">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -187,7 +187,7 @@
     <t>RelatedPerson.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -203,7 +203,7 @@
     <t>RelatedPerson.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>RelatedPerson.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -255,7 +255,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -285,7 +285,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -311,7 +311,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -342,7 +342,7 @@
     <t>RelatedPerson.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -387,7 +387,7 @@
     <t>RelatedPerson.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -425,7 +425,7 @@
     <t>ihiStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-status}
 </t>
   </si>
   <si>
@@ -456,7 +456,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-status</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -468,7 +468,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>ihiRecordStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-record-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-record-status}
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>Individual Healthcare Identifier (IHI) value record status associated with an IHI identifier</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-record-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-record-status</t>
   </si>
   <si>
     <t>IHI Record Status Code</t>
@@ -545,7 +545,7 @@
     <t>RelatedPerson.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -627,7 +627,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="IHI"/&gt;</t>
+    <t>IHI</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -651,10 +651,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/ihi/1.0"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -678,7 +678,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>16</t>
@@ -696,7 +696,7 @@
     <t>RelatedPerson.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -718,7 +718,7 @@
     <t>RelatedPerson.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -766,16 +766,13 @@
     <t>Medicare number descriptive text.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Medicare number</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/medicare-number</t>
   </si>
   <si>
     <t>Medicare number including optional individual reference number</t>
@@ -799,7 +796,7 @@
     <t>RelatedPerson.identifier.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -877,7 +874,7 @@
     <t>DVA number assigned uri.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/dva"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/dva</t>
   </si>
   <si>
     <t>DVA number</t>
@@ -918,16 +915,13 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Health Care Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN)</t>
   </si>
   <si>
     <t>Namespace for Customer Reference Number (CRN) values</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/centrelink-customer-reference-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/centrelink-customer-reference-number</t>
   </si>
   <si>
     <t>Centrelink CRN</t>
@@ -965,9 +959,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Pensioner Concession Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN) values.</t>
   </si>
   <si>
@@ -994,7 +985,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Commonwealth Seniors Health Card"/&gt;</t>
+    <t>Commonwealth Seniors Health Card</t>
   </si>
   <si>
     <t>medicalRecordNumber</t>
@@ -1017,7 +1008,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical Record Number"/&gt;</t>
+    <t>Medical Record Number</t>
   </si>
   <si>
     <t>Medical record number system namespace</t>
@@ -1052,9 +1043,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Private Health Insurance Member Number"/&gt;</t>
-  </si>
-  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -1127,7 +1115,7 @@
     <t>RelatedPerson.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -1143,7 +1131,7 @@
     <t>Need to be able to mark a related person record as not to be used, such as if it was created in error.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>.statusCode</t>
@@ -1155,7 +1143,7 @@
     <t>RelatedPerson.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1)
 </t>
   </si>
   <si>
@@ -1201,7 +1189,7 @@
     <t>RelatedPerson.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
+    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
 </t>
   </si>
   <si>
@@ -1223,7 +1211,7 @@
     <t>RelatedPerson.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -1272,7 +1260,7 @@
     <t>RelatedPerson.birthDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1288,7 +1276,7 @@
     <t>RelatedPerson.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -1310,7 +1298,7 @@
     <t>RelatedPerson.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1394,67 +1382,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1513,7 +1501,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -6123,7 +6111,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>39</v>
@@ -6217,10 +6205,10 @@
         <v>61</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
@@ -6231,7 +6219,7 @@
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>39</v>
@@ -6325,10 +6313,10 @@
         <v>118</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>210</v>
@@ -6354,7 +6342,7 @@
         <v>39</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>39</v>
@@ -6433,7 +6421,7 @@
         <v>217</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>219</v>
@@ -6513,7 +6501,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6619,7 +6607,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6727,7 +6715,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6750,16 +6738,16 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6809,33 +6797,33 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH49" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH49" t="s" s="2">
+      <c r="AI49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AI49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6858,89 +6846,89 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P50" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Q50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Q50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE50" t="s" s="2">
+      <c r="AF50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AK50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7056,7 +7044,7 @@
         <v>103</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>39</v>
@@ -7081,10 +7069,10 @@
         <v>104</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
@@ -7149,7 +7137,7 @@
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>110</v>
@@ -7513,10 +7501,10 @@
         <v>169</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>172</v>
@@ -7950,7 +7938,7 @@
         <v>190</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>192</v>
@@ -8057,10 +8045,10 @@
         <v>61</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
@@ -8071,7 +8059,7 @@
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>39</v>
@@ -8165,13 +8153,13 @@
         <v>118</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8194,7 +8182,7 @@
         <v>39</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W62" t="s" s="2">
         <v>39</v>
@@ -8464,7 +8452,7 @@
         <v>103</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>39</v>
@@ -8489,10 +8477,10 @@
         <v>104</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -8921,10 +8909,10 @@
         <v>169</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>172</v>
@@ -8940,7 +8928,7 @@
         <v>39</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>39</v>
@@ -9358,7 +9346,7 @@
         <v>190</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>192</v>
@@ -9371,7 +9359,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>39</v>
@@ -9465,10 +9453,10 @@
         <v>61</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
@@ -9479,7 +9467,7 @@
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>39</v>
@@ -9573,13 +9561,13 @@
         <v>118</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9602,7 +9590,7 @@
         <v>39</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="W75" t="s" s="2">
         <v>39</v>
@@ -9872,7 +9860,7 @@
         <v>103</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
@@ -9897,10 +9885,10 @@
         <v>104</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -10329,10 +10317,10 @@
         <v>169</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>172</v>
@@ -10348,7 +10336,7 @@
         <v>39</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>39</v>
@@ -10766,7 +10754,7 @@
         <v>190</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>192</v>
@@ -10779,7 +10767,7 @@
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>39</v>
@@ -10873,10 +10861,10 @@
         <v>61</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
@@ -10887,7 +10875,7 @@
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>39</v>
@@ -10981,13 +10969,13 @@
         <v>118</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11010,7 +10998,7 @@
         <v>39</v>
       </c>
       <c r="V88" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="W88" t="s" s="2">
         <v>39</v>
@@ -11280,7 +11268,7 @@
         <v>103</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>39</v>
@@ -11305,10 +11293,10 @@
         <v>104</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -11737,10 +11725,10 @@
         <v>169</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>172</v>
@@ -11756,7 +11744,7 @@
         <v>39</v>
       </c>
       <c r="R95" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>39</v>
@@ -12174,7 +12162,7 @@
         <v>190</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>192</v>
@@ -12187,7 +12175,7 @@
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>39</v>
@@ -12281,10 +12269,10 @@
         <v>61</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
@@ -12295,7 +12283,7 @@
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R100" t="s" s="2">
         <v>39</v>
@@ -12389,13 +12377,13 @@
         <v>118</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -12418,7 +12406,7 @@
         <v>39</v>
       </c>
       <c r="V101" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="W101" t="s" s="2">
         <v>39</v>
@@ -12688,7 +12676,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>39</v>
@@ -12713,10 +12701,10 @@
         <v>104</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
@@ -13145,7 +13133,7 @@
         <v>169</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>171</v>
@@ -13164,7 +13152,7 @@
         <v>39</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>39</v>
@@ -13582,7 +13570,7 @@
         <v>190</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>192</v>
@@ -13595,7 +13583,7 @@
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>39</v>
@@ -13689,10 +13677,10 @@
         <v>61</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
@@ -13797,10 +13785,10 @@
         <v>118</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>210</v>
@@ -14011,7 +13999,7 @@
         <v>224</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L116" t="s" s="2">
         <v>226</v>
@@ -14096,7 +14084,7 @@
         <v>103</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>39</v>
@@ -14121,10 +14109,10 @@
         <v>104</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
@@ -14553,7 +14541,7 @@
         <v>169</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L121" t="s" s="2">
         <v>171</v>
@@ -14572,7 +14560,7 @@
         <v>39</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>39</v>
@@ -14990,7 +14978,7 @@
         <v>190</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>192</v>
@@ -15003,7 +14991,7 @@
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="R125" t="s" s="2">
         <v>39</v>
@@ -15097,10 +15085,10 @@
         <v>61</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" t="s" s="2">
@@ -15205,10 +15193,10 @@
         <v>118</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>210</v>
@@ -15419,7 +15407,7 @@
         <v>224</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>226</v>
@@ -15501,7 +15489,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15607,7 +15595,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15715,7 +15703,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15741,13 +15729,13 @@
         <v>118</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -15797,7 +15785,7 @@
         <v>39</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
@@ -15806,7 +15794,7 @@
         <v>48</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>39</v>
@@ -15823,7 +15811,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15849,13 +15837,13 @@
         <v>104</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -15905,7 +15893,7 @@
         <v>39</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -15920,7 +15908,7 @@
         <v>39</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>39</v>
@@ -15931,7 +15919,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -15957,13 +15945,13 @@
         <v>118</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -16013,7 +16001,7 @@
         <v>39</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
@@ -16039,7 +16027,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16062,22 +16050,22 @@
         <v>49</v>
       </c>
       <c r="J135" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
@@ -16123,7 +16111,7 @@
         <v>39</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -16138,10 +16126,10 @@
         <v>39</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>39</v>
@@ -16149,7 +16137,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16172,17 +16160,17 @@
         <v>49</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>39</v>
@@ -16231,7 +16219,7 @@
         <v>39</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>48</v>
@@ -16246,18 +16234,18 @@
         <v>39</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16283,14 +16271,14 @@
         <v>169</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>39</v>
@@ -16319,7 +16307,7 @@
       </c>
       <c r="X137" s="2"/>
       <c r="Y137" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>39</v>
@@ -16337,7 +16325,7 @@
         <v>39</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -16352,18 +16340,18 @@
         <v>39</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16386,17 +16374,17 @@
         <v>49</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>39</v>
@@ -16445,7 +16433,7 @@
         <v>39</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -16460,18 +16448,18 @@
         <v>39</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16494,19 +16482,19 @@
         <v>49</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>39</v>
@@ -16555,7 +16543,7 @@
         <v>39</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
@@ -16570,18 +16558,18 @@
         <v>39</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16607,14 +16595,14 @@
         <v>67</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>39</v>
@@ -16642,10 +16630,10 @@
         <v>146</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>39</v>
@@ -16663,7 +16651,7 @@
         <v>39</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
@@ -16678,18 +16666,18 @@
         <v>39</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16712,13 +16700,13 @@
         <v>49</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16769,22 +16757,22 @@
         <v>39</v>
       </c>
       <c r="AE141" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>39</v>
@@ -16795,7 +16783,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16818,17 +16806,17 @@
         <v>49</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>39</v>
@@ -16877,7 +16865,7 @@
         <v>39</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -16892,18 +16880,18 @@
         <v>39</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16926,17 +16914,17 @@
         <v>39</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>39</v>
@@ -16985,7 +16973,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -17000,18 +16988,18 @@
         <v>39</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17037,10 +17025,10 @@
         <v>217</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17091,25 +17079,25 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AK144" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>39</v>

--- a/output/PersonalHealthRecords/relatedperson-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/relatedperson-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="418">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -187,7 +187,7 @@
     <t>RelatedPerson.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -203,7 +203,7 @@
     <t>RelatedPerson.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>RelatedPerson.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -255,7 +255,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -285,7 +285,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -311,7 +311,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -342,7 +342,7 @@
     <t>RelatedPerson.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -387,7 +387,7 @@
     <t>RelatedPerson.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -425,7 +425,7 @@
     <t>ihiStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-status}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-status]]} {[]}
 </t>
   </si>
   <si>
@@ -456,7 +456,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-status</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-status"/&gt;</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -468,7 +468,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>ihiRecordStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-record-status}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-record-status]]} {[]}
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>Individual Healthcare Identifier (IHI) value record status associated with an IHI identifier</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-record-status</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-record-status"/&gt;</t>
   </si>
   <si>
     <t>IHI Record Status Code</t>
@@ -545,7 +545,7 @@
     <t>RelatedPerson.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -627,7 +627,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>IHI</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="IHI"/&gt;</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -651,10 +651,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/ihi/1.0"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -678,7 +678,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
   </si>
   <si>
     <t>16</t>
@@ -696,7 +696,7 @@
     <t>RelatedPerson.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -718,7 +718,7 @@
     <t>RelatedPerson.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -766,13 +766,16 @@
     <t>Medicare number descriptive text.</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Number"/&gt;</t>
+  </si>
+  <si>
     <t>Namespace for Medicare number</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/medicare-number</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-number"/&gt;</t>
   </si>
   <si>
     <t>Medicare number including optional individual reference number</t>
@@ -796,7 +799,7 @@
     <t>RelatedPerson.identifier.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -874,7 +877,7 @@
     <t>DVA number assigned uri.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/dva</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/dva"/&gt;</t>
   </si>
   <si>
     <t>DVA number</t>
@@ -915,13 +918,16 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Health Care Card Number"/&gt;</t>
+  </si>
+  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN)</t>
   </si>
   <si>
     <t>Namespace for Customer Reference Number (CRN) values</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/centrelink-customer-reference-number</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/centrelink-customer-reference-number"/&gt;</t>
   </si>
   <si>
     <t>Centrelink CRN</t>
@@ -959,6 +965,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Pensioner Concession Card Number"/&gt;</t>
+  </si>
+  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN) values.</t>
   </si>
   <si>
@@ -985,7 +994,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Commonwealth Seniors Health Card</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Commonwealth Seniors Health Card"/&gt;</t>
   </si>
   <si>
     <t>medicalRecordNumber</t>
@@ -1008,7 +1017,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Medical Record Number</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical Record Number"/&gt;</t>
   </si>
   <si>
     <t>Medical record number system namespace</t>
@@ -1043,6 +1052,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Private Health Insurance Member Number"/&gt;</t>
+  </si>
+  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -1115,7 +1127,7 @@
     <t>RelatedPerson.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -1131,7 +1143,7 @@
     <t>Need to be able to mark a related person record as not to be used, such as if it was created in error.</t>
   </si>
   <si>
-    <t>true</t>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
   </si>
   <si>
     <t>.statusCode</t>
@@ -1143,7 +1155,7 @@
     <t>RelatedPerson.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1]]}
 </t>
   </si>
   <si>
@@ -1189,7 +1201,7 @@
     <t>RelatedPerson.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
+    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
 </t>
   </si>
   <si>
@@ -1211,7 +1223,7 @@
     <t>RelatedPerson.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {[]} {[]}
 </t>
   </si>
   <si>
@@ -1260,7 +1272,7 @@
     <t>RelatedPerson.birthDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date
+    <t xml:space="preserve">date {[]} {[]}
 </t>
   </si>
   <si>
@@ -1276,7 +1288,7 @@
     <t>RelatedPerson.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {[]} {[]}
 </t>
   </si>
   <si>
@@ -1298,7 +1310,7 @@
     <t>RelatedPerson.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment
+    <t xml:space="preserve">Attachment {[]} {[]}
 </t>
   </si>
   <si>
@@ -1382,67 +1394,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1478,7 +1490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL144"/>
+  <dimension ref="A1:AM144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1501,7 +1513,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -6111,7 +6123,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>39</v>
@@ -6205,10 +6217,10 @@
         <v>61</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
@@ -6219,7 +6231,7 @@
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>39</v>
@@ -6313,10 +6325,10 @@
         <v>118</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>210</v>
@@ -6342,7 +6354,7 @@
         <v>39</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>39</v>
@@ -6421,7 +6433,7 @@
         <v>217</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>219</v>
@@ -6501,7 +6513,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6607,7 +6619,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6715,7 +6727,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6738,16 +6750,16 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6797,7 +6809,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6806,24 +6818,24 @@
         <v>48</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6846,23 +6858,23 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>39</v>
@@ -6907,7 +6919,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6916,19 +6928,19 @@
         <v>48</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7044,7 +7056,7 @@
         <v>103</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>39</v>
@@ -7069,10 +7081,10 @@
         <v>104</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
@@ -7137,7 +7149,7 @@
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>110</v>
@@ -7501,10 +7513,10 @@
         <v>169</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>172</v>
@@ -7938,7 +7950,7 @@
         <v>190</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>192</v>
@@ -8045,10 +8057,10 @@
         <v>61</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
@@ -8059,7 +8071,7 @@
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>39</v>
@@ -8153,13 +8165,13 @@
         <v>118</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8182,7 +8194,7 @@
         <v>39</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="W62" t="s" s="2">
         <v>39</v>
@@ -8452,7 +8464,7 @@
         <v>103</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>39</v>
@@ -8477,10 +8489,10 @@
         <v>104</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -8909,10 +8921,10 @@
         <v>169</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>172</v>
@@ -8928,7 +8940,7 @@
         <v>39</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>39</v>
@@ -9346,7 +9358,7 @@
         <v>190</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>192</v>
@@ -9359,7 +9371,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>39</v>
@@ -9453,10 +9465,10 @@
         <v>61</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
@@ -9467,7 +9479,7 @@
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>39</v>
@@ -9561,13 +9573,13 @@
         <v>118</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9590,7 +9602,7 @@
         <v>39</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="W75" t="s" s="2">
         <v>39</v>
@@ -9860,7 +9872,7 @@
         <v>103</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
@@ -9885,10 +9897,10 @@
         <v>104</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -10317,10 +10329,10 @@
         <v>169</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>172</v>
@@ -10336,7 +10348,7 @@
         <v>39</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>39</v>
@@ -10754,7 +10766,7 @@
         <v>190</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>192</v>
@@ -10767,7 +10779,7 @@
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>39</v>
@@ -10861,10 +10873,10 @@
         <v>61</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
@@ -10875,7 +10887,7 @@
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>39</v>
@@ -10969,13 +10981,13 @@
         <v>118</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -10998,7 +11010,7 @@
         <v>39</v>
       </c>
       <c r="V88" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="W88" t="s" s="2">
         <v>39</v>
@@ -11268,7 +11280,7 @@
         <v>103</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>39</v>
@@ -11293,10 +11305,10 @@
         <v>104</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -11725,10 +11737,10 @@
         <v>169</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>172</v>
@@ -11744,7 +11756,7 @@
         <v>39</v>
       </c>
       <c r="R95" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>39</v>
@@ -12162,7 +12174,7 @@
         <v>190</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>192</v>
@@ -12175,7 +12187,7 @@
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>39</v>
@@ -12269,10 +12281,10 @@
         <v>61</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
@@ -12283,7 +12295,7 @@
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R100" t="s" s="2">
         <v>39</v>
@@ -12377,13 +12389,13 @@
         <v>118</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -12406,7 +12418,7 @@
         <v>39</v>
       </c>
       <c r="V101" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="W101" t="s" s="2">
         <v>39</v>
@@ -12676,7 +12688,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>39</v>
@@ -12701,10 +12713,10 @@
         <v>104</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
@@ -13133,7 +13145,7 @@
         <v>169</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>171</v>
@@ -13152,7 +13164,7 @@
         <v>39</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>39</v>
@@ -13570,7 +13582,7 @@
         <v>190</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>192</v>
@@ -13583,7 +13595,7 @@
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>39</v>
@@ -13677,10 +13689,10 @@
         <v>61</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
@@ -13785,10 +13797,10 @@
         <v>118</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>210</v>
@@ -13999,7 +14011,7 @@
         <v>224</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L116" t="s" s="2">
         <v>226</v>
@@ -14084,7 +14096,7 @@
         <v>103</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>39</v>
@@ -14109,10 +14121,10 @@
         <v>104</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
@@ -14541,7 +14553,7 @@
         <v>169</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L121" t="s" s="2">
         <v>171</v>
@@ -14560,7 +14572,7 @@
         <v>39</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>39</v>
@@ -14978,7 +14990,7 @@
         <v>190</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>192</v>
@@ -14991,7 +15003,7 @@
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="R125" t="s" s="2">
         <v>39</v>
@@ -15085,10 +15097,10 @@
         <v>61</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" t="s" s="2">
@@ -15193,10 +15205,10 @@
         <v>118</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>210</v>
@@ -15407,7 +15419,7 @@
         <v>224</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>226</v>
@@ -15489,7 +15501,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15595,7 +15607,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15703,7 +15715,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15729,13 +15741,13 @@
         <v>118</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -15785,7 +15797,7 @@
         <v>39</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
@@ -15794,7 +15806,7 @@
         <v>48</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>39</v>
@@ -15811,7 +15823,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15837,13 +15849,13 @@
         <v>104</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -15893,7 +15905,7 @@
         <v>39</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -15908,7 +15920,7 @@
         <v>39</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>39</v>
@@ -15919,7 +15931,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -15945,13 +15957,13 @@
         <v>118</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -16001,7 +16013,7 @@
         <v>39</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
@@ -16027,7 +16039,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16050,22 +16062,22 @@
         <v>49</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
@@ -16111,7 +16123,7 @@
         <v>39</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -16126,10 +16138,10 @@
         <v>39</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>39</v>
@@ -16137,7 +16149,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16160,17 +16172,17 @@
         <v>49</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>39</v>
@@ -16219,7 +16231,7 @@
         <v>39</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>48</v>
@@ -16234,18 +16246,18 @@
         <v>39</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16271,14 +16283,14 @@
         <v>169</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>39</v>
@@ -16307,26 +16319,26 @@
       </c>
       <c r="X137" s="2"/>
       <c r="Y137" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE137" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Z137" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
       </c>
@@ -16340,18 +16352,18 @@
         <v>39</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16374,17 +16386,17 @@
         <v>49</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>39</v>
@@ -16433,7 +16445,7 @@
         <v>39</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -16448,18 +16460,18 @@
         <v>39</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16482,19 +16494,19 @@
         <v>49</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>39</v>
@@ -16543,7 +16555,7 @@
         <v>39</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
@@ -16558,18 +16570,18 @@
         <v>39</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16595,14 +16607,14 @@
         <v>67</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>39</v>
@@ -16630,29 +16642,29 @@
         <v>146</v>
       </c>
       <c r="X140" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE140" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Y140" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
       </c>
@@ -16666,18 +16678,18 @@
         <v>39</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16700,13 +16712,13 @@
         <v>49</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16757,7 +16769,7 @@
         <v>39</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>40</v>
@@ -16772,7 +16784,7 @@
         <v>39</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>39</v>
@@ -16783,7 +16795,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16806,17 +16818,17 @@
         <v>49</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>39</v>
@@ -16865,7 +16877,7 @@
         <v>39</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -16880,18 +16892,18 @@
         <v>39</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16914,17 +16926,17 @@
         <v>39</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>39</v>
@@ -16973,7 +16985,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -16988,18 +17000,18 @@
         <v>39</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17025,10 +17037,10 @@
         <v>217</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17079,7 +17091,7 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -17094,10 +17106,10 @@
         <v>39</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>39</v>

--- a/output/PersonalHealthRecords/relatedperson-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/relatedperson-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="414">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -187,7 +187,7 @@
     <t>RelatedPerson.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -203,7 +203,7 @@
     <t>RelatedPerson.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>RelatedPerson.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -255,7 +255,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -285,7 +285,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -311,7 +311,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -342,7 +342,7 @@
     <t>RelatedPerson.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -387,7 +387,7 @@
     <t>RelatedPerson.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -425,7 +425,7 @@
     <t>ihiStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-status}
 </t>
   </si>
   <si>
@@ -456,7 +456,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-status</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -468,7 +468,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>ihiRecordStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-record-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-record-status}
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>Individual Healthcare Identifier (IHI) value record status associated with an IHI identifier</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-record-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-record-status</t>
   </si>
   <si>
     <t>IHI Record Status Code</t>
@@ -545,7 +545,7 @@
     <t>RelatedPerson.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -627,7 +627,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="IHI"/&gt;</t>
+    <t>IHI</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -651,10 +651,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/ihi/1.0"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -678,7 +678,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>16</t>
@@ -696,7 +696,7 @@
     <t>RelatedPerson.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -718,7 +718,7 @@
     <t>RelatedPerson.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -766,16 +766,13 @@
     <t>Medicare number descriptive text.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Medicare number</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/medicare-number</t>
   </si>
   <si>
     <t>Medicare number including optional individual reference number</t>
@@ -799,7 +796,7 @@
     <t>RelatedPerson.identifier.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -877,7 +874,7 @@
     <t>DVA number assigned uri.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/dva"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/dva</t>
   </si>
   <si>
     <t>DVA number</t>
@@ -918,16 +915,13 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Health Care Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN)</t>
   </si>
   <si>
     <t>Namespace for Customer Reference Number (CRN) values</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/centrelink-customer-reference-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/centrelink-customer-reference-number</t>
   </si>
   <si>
     <t>Centrelink CRN</t>
@@ -965,9 +959,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Pensioner Concession Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN) values.</t>
   </si>
   <si>
@@ -994,7 +985,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Commonwealth Seniors Health Card"/&gt;</t>
+    <t>Commonwealth Seniors Health Card</t>
   </si>
   <si>
     <t>medicalRecordNumber</t>
@@ -1017,7 +1008,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical Record Number"/&gt;</t>
+    <t>Medical Record Number</t>
   </si>
   <si>
     <t>Medical record number system namespace</t>
@@ -1052,9 +1043,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Private Health Insurance Member Number"/&gt;</t>
-  </si>
-  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -1127,7 +1115,7 @@
     <t>RelatedPerson.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -1143,7 +1131,7 @@
     <t>Need to be able to mark a related person record as not to be used, such as if it was created in error.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>.statusCode</t>
@@ -1155,7 +1143,7 @@
     <t>RelatedPerson.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1)
 </t>
   </si>
   <si>
@@ -1201,7 +1189,7 @@
     <t>RelatedPerson.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
+    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
 </t>
   </si>
   <si>
@@ -1223,7 +1211,7 @@
     <t>RelatedPerson.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -1272,7 +1260,7 @@
     <t>RelatedPerson.birthDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1288,7 +1276,7 @@
     <t>RelatedPerson.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -1310,7 +1298,7 @@
     <t>RelatedPerson.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1394,67 +1382,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1490,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM144"/>
+  <dimension ref="A1:AL144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1513,7 +1501,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -6123,7 +6111,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>39</v>
@@ -6217,10 +6205,10 @@
         <v>61</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
@@ -6231,7 +6219,7 @@
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>39</v>
@@ -6325,10 +6313,10 @@
         <v>118</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>210</v>
@@ -6354,7 +6342,7 @@
         <v>39</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>39</v>
@@ -6433,7 +6421,7 @@
         <v>217</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>219</v>
@@ -6513,7 +6501,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6619,7 +6607,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6727,7 +6715,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6750,16 +6738,16 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6809,33 +6797,33 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH49" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH49" t="s" s="2">
+      <c r="AI49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AI49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6858,89 +6846,89 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P50" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Q50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Q50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE50" t="s" s="2">
+      <c r="AF50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AK50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7056,7 +7044,7 @@
         <v>103</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>39</v>
@@ -7081,10 +7069,10 @@
         <v>104</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
@@ -7149,7 +7137,7 @@
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>110</v>
@@ -7513,10 +7501,10 @@
         <v>169</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>172</v>
@@ -7950,7 +7938,7 @@
         <v>190</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>192</v>
@@ -8057,10 +8045,10 @@
         <v>61</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
@@ -8071,7 +8059,7 @@
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>39</v>
@@ -8165,13 +8153,13 @@
         <v>118</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8194,7 +8182,7 @@
         <v>39</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W62" t="s" s="2">
         <v>39</v>
@@ -8464,7 +8452,7 @@
         <v>103</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>39</v>
@@ -8489,10 +8477,10 @@
         <v>104</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -8921,10 +8909,10 @@
         <v>169</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>172</v>
@@ -8940,7 +8928,7 @@
         <v>39</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>39</v>
@@ -9358,7 +9346,7 @@
         <v>190</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>192</v>
@@ -9371,7 +9359,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>39</v>
@@ -9465,10 +9453,10 @@
         <v>61</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
@@ -9479,7 +9467,7 @@
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>39</v>
@@ -9573,13 +9561,13 @@
         <v>118</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9602,7 +9590,7 @@
         <v>39</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="W75" t="s" s="2">
         <v>39</v>
@@ -9872,7 +9860,7 @@
         <v>103</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
@@ -9897,10 +9885,10 @@
         <v>104</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -10329,10 +10317,10 @@
         <v>169</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>172</v>
@@ -10348,7 +10336,7 @@
         <v>39</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>39</v>
@@ -10766,7 +10754,7 @@
         <v>190</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>192</v>
@@ -10779,7 +10767,7 @@
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>39</v>
@@ -10873,10 +10861,10 @@
         <v>61</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
@@ -10887,7 +10875,7 @@
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>39</v>
@@ -10981,13 +10969,13 @@
         <v>118</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11010,7 +10998,7 @@
         <v>39</v>
       </c>
       <c r="V88" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="W88" t="s" s="2">
         <v>39</v>
@@ -11280,7 +11268,7 @@
         <v>103</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>39</v>
@@ -11305,10 +11293,10 @@
         <v>104</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -11737,10 +11725,10 @@
         <v>169</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>172</v>
@@ -11756,7 +11744,7 @@
         <v>39</v>
       </c>
       <c r="R95" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>39</v>
@@ -12174,7 +12162,7 @@
         <v>190</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>192</v>
@@ -12187,7 +12175,7 @@
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>39</v>
@@ -12281,10 +12269,10 @@
         <v>61</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
@@ -12295,7 +12283,7 @@
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R100" t="s" s="2">
         <v>39</v>
@@ -12389,13 +12377,13 @@
         <v>118</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -12418,7 +12406,7 @@
         <v>39</v>
       </c>
       <c r="V101" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="W101" t="s" s="2">
         <v>39</v>
@@ -12688,7 +12676,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>39</v>
@@ -12713,10 +12701,10 @@
         <v>104</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
@@ -13145,7 +13133,7 @@
         <v>169</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>171</v>
@@ -13164,7 +13152,7 @@
         <v>39</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>39</v>
@@ -13582,7 +13570,7 @@
         <v>190</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>192</v>
@@ -13595,7 +13583,7 @@
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>39</v>
@@ -13689,10 +13677,10 @@
         <v>61</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
@@ -13797,10 +13785,10 @@
         <v>118</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>210</v>
@@ -14011,7 +13999,7 @@
         <v>224</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L116" t="s" s="2">
         <v>226</v>
@@ -14096,7 +14084,7 @@
         <v>103</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>39</v>
@@ -14121,10 +14109,10 @@
         <v>104</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
@@ -14553,7 +14541,7 @@
         <v>169</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L121" t="s" s="2">
         <v>171</v>
@@ -14572,7 +14560,7 @@
         <v>39</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>39</v>
@@ -14990,7 +14978,7 @@
         <v>190</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>192</v>
@@ -15003,7 +14991,7 @@
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="R125" t="s" s="2">
         <v>39</v>
@@ -15097,10 +15085,10 @@
         <v>61</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" t="s" s="2">
@@ -15205,10 +15193,10 @@
         <v>118</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>210</v>
@@ -15419,7 +15407,7 @@
         <v>224</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>226</v>
@@ -15501,7 +15489,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15607,7 +15595,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15715,7 +15703,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15741,13 +15729,13 @@
         <v>118</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -15797,7 +15785,7 @@
         <v>39</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
@@ -15806,7 +15794,7 @@
         <v>48</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>39</v>
@@ -15823,7 +15811,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15849,13 +15837,13 @@
         <v>104</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -15905,7 +15893,7 @@
         <v>39</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -15920,7 +15908,7 @@
         <v>39</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>39</v>
@@ -15931,7 +15919,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -15957,13 +15945,13 @@
         <v>118</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -16013,7 +16001,7 @@
         <v>39</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
@@ -16039,7 +16027,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16062,22 +16050,22 @@
         <v>49</v>
       </c>
       <c r="J135" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
@@ -16123,7 +16111,7 @@
         <v>39</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -16138,10 +16126,10 @@
         <v>39</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>39</v>
@@ -16149,7 +16137,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16172,17 +16160,17 @@
         <v>49</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>39</v>
@@ -16231,7 +16219,7 @@
         <v>39</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>48</v>
@@ -16246,18 +16234,18 @@
         <v>39</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16283,14 +16271,14 @@
         <v>169</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>39</v>
@@ -16319,7 +16307,7 @@
       </c>
       <c r="X137" s="2"/>
       <c r="Y137" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>39</v>
@@ -16337,7 +16325,7 @@
         <v>39</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -16352,18 +16340,18 @@
         <v>39</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16386,17 +16374,17 @@
         <v>49</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>39</v>
@@ -16445,7 +16433,7 @@
         <v>39</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -16460,18 +16448,18 @@
         <v>39</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16494,19 +16482,19 @@
         <v>49</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>39</v>
@@ -16555,7 +16543,7 @@
         <v>39</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
@@ -16570,18 +16558,18 @@
         <v>39</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16607,14 +16595,14 @@
         <v>67</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>39</v>
@@ -16642,10 +16630,10 @@
         <v>146</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>39</v>
@@ -16663,7 +16651,7 @@
         <v>39</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
@@ -16678,18 +16666,18 @@
         <v>39</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16712,13 +16700,13 @@
         <v>49</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16769,22 +16757,22 @@
         <v>39</v>
       </c>
       <c r="AE141" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>39</v>
@@ -16795,7 +16783,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16818,17 +16806,17 @@
         <v>49</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>39</v>
@@ -16877,7 +16865,7 @@
         <v>39</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -16892,18 +16880,18 @@
         <v>39</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16926,17 +16914,17 @@
         <v>39</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>39</v>
@@ -16985,7 +16973,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -17000,18 +16988,18 @@
         <v>39</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17037,10 +17025,10 @@
         <v>217</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17091,25 +17079,25 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AK144" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>39</v>

--- a/output/PersonalHealthRecords/relatedperson-ihi-1.xlsx
+++ b/output/PersonalHealthRecords/relatedperson-ihi-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="417">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-relper-01:The patient reference shall at least have a reference, an identifier or a display {patient.reference.exists() or patient.identifier.exists() or patient.display.exists()}</t>
   </si>
   <si>
     <t>role</t>
@@ -1193,19 +1193,30 @@
 </t>
   </si>
   <si>
-    <t>A name associated with the person</t>
-  </si>
-  <si>
-    <t>A name associated with the person.</t>
+    <t>Name of a human - parts and usage</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts may or may not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
   </si>
   <si>
     <t>Related persons need to be identified by name, but it is uncommon to need details about multiple other names for that person.</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>NK1-2</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+inv-dh-humn-01:The name shall at least have text or a family name or a given name {text.exists() or family.exists() or given.exists()}</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>XPN</t>
   </si>
   <si>
     <t>RelatedPerson.telecom</t>
@@ -16371,7 +16382,7 @@
         <v>39</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J138" t="s" s="2">
         <v>368</v>
@@ -16382,9 +16393,11 @@
       <c r="L138" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M138" s="2"/>
+      <c r="M138" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="N138" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>39</v>
@@ -16442,24 +16455,24 @@
         <v>41</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>39</v>
+        <v>373</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>39</v>
+        <v>374</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16482,19 +16495,19 @@
         <v>49</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>39</v>
@@ -16543,7 +16556,7 @@
         <v>39</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
@@ -16558,18 +16571,18 @@
         <v>39</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16595,14 +16608,14 @@
         <v>67</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>39</v>
@@ -16630,10 +16643,10 @@
         <v>146</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>39</v>
@@ -16651,7 +16664,7 @@
         <v>39</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
@@ -16666,18 +16679,18 @@
         <v>39</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16700,13 +16713,13 @@
         <v>49</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16757,7 +16770,7 @@
         <v>39</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>40</v>
@@ -16772,7 +16785,7 @@
         <v>39</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>39</v>
@@ -16783,7 +16796,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16806,17 +16819,17 @@
         <v>49</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>39</v>
@@ -16865,7 +16878,7 @@
         <v>39</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -16880,18 +16893,18 @@
         <v>39</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16905,7 +16918,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>39</v>
@@ -16914,17 +16927,17 @@
         <v>39</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>39</v>
@@ -16973,7 +16986,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -16988,18 +17001,18 @@
         <v>39</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17025,10 +17038,10 @@
         <v>217</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17079,7 +17092,7 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -17094,10 +17107,10 @@
         <v>39</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>39</v>
